--- a/SERVICES_CONTRIBUTION.xlsx
+++ b/SERVICES_CONTRIBUTION.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">cultural services</t>
   </si>
   <si>
-    <t xml:space="preserve">Restaurants, cafe, etc.</t>
+    <t xml:space="preserve">Restaurant, Cafes etc.</t>
   </si>
   <si>
     <t xml:space="preserve">Canteen</t>
@@ -583,8 +583,8 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0.000000845353360499788</v>
@@ -696,8 +696,8 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>-0.00000169921894431196</v>
@@ -809,8 +809,8 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>-0.00000168555216156413</v>
@@ -922,8 +922,8 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>-0.0000016933549603717</v>
@@ -1035,8 +1035,8 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>-0.00000306677411125522</v>
@@ -1148,8 +1148,8 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0.00000636403397424386</v>
@@ -1261,8 +1261,8 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0.00000628774713576233</v>
@@ -1374,8 +1374,8 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0.00000446772717020832</v>
@@ -1487,8 +1487,8 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0.00000450712973676483</v>
@@ -1600,8 +1600,8 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="e">
-        <v>#NUM!</v>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0.00000452478455829583</v>
@@ -1713,8 +1713,8 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="e">
-        <v>#NUM!</v>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0.00000401126466796804</v>
@@ -1826,8 +1826,8 @@
       <c r="E13" t="n">
         <v>0.000000325367893477136</v>
       </c>
-      <c r="F13" t="e">
-        <v>#NUM!</v>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0.00000398848865934481</v>
@@ -1939,8 +1939,8 @@
       <c r="E14" t="n">
         <v>0.00000032527548892332</v>
       </c>
-      <c r="F14" t="e">
-        <v>#NUM!</v>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0.00000395614728495855</v>
@@ -2052,8 +2052,8 @@
       <c r="E15" t="n">
         <v>0.000000322314662357477</v>
       </c>
-      <c r="F15" t="e">
-        <v>#NUM!</v>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0.00000759287622874418</v>
@@ -2165,8 +2165,8 @@
       <c r="E16" t="n">
         <v>0.00000403470746172025</v>
       </c>
-      <c r="F16" t="e">
-        <v>#NUM!</v>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0000075105816324271</v>
@@ -2278,8 +2278,8 @@
       <c r="E17" t="n">
         <v>0.00000402209569551704</v>
       </c>
-      <c r="F17" t="e">
-        <v>#NUM!</v>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0.00000748710491187252</v>
@@ -2391,8 +2391,8 @@
       <c r="E18" t="n">
         <v>0.000004043934934801</v>
       </c>
-      <c r="F18" t="e">
-        <v>#NUM!</v>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0.00000808735508681525</v>
@@ -2504,8 +2504,8 @@
       <c r="E19" t="n">
         <v>0.00000400957193557818</v>
       </c>
-      <c r="F19" t="e">
-        <v>#NUM!</v>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0.00000321894725111246</v>
@@ -2617,8 +2617,8 @@
       <c r="E20" t="n">
         <v>0.00000398721201640835</v>
       </c>
-      <c r="F20" t="e">
-        <v>#NUM!</v>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0.00000320099635722572</v>
@@ -2730,8 +2730,8 @@
       <c r="E21" t="n">
         <v>0.00000397890221171849</v>
       </c>
-      <c r="F21" t="e">
-        <v>#NUM!</v>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0.00000784423667772784</v>
@@ -2843,8 +2843,8 @@
       <c r="E22" t="n">
         <v>0.00000400025664039749</v>
       </c>
-      <c r="F22" t="e">
-        <v>#NUM!</v>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0.00000788633602668454</v>
@@ -2956,8 +2956,8 @@
       <c r="E23" t="n">
         <v>0.00000401563315437697</v>
       </c>
-      <c r="F23" t="e">
-        <v>#NUM!</v>
+      <c r="F23" t="n">
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0.00000791665017076634</v>
@@ -3069,8 +3069,8 @@
       <c r="E24" t="n">
         <v>0.00000403165371304157</v>
       </c>
-      <c r="F24" t="e">
-        <v>#NUM!</v>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0.00000794823402158439</v>
@@ -3182,8 +3182,8 @@
       <c r="E25" t="n">
         <v>0.00000397689276936484</v>
       </c>
-      <c r="F25" t="e">
-        <v>#NUM!</v>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0000079048979964124</v>
@@ -3295,8 +3295,8 @@
       <c r="E26" t="n">
         <v>0.00000400139195826651</v>
       </c>
-      <c r="F26" t="e">
-        <v>#NUM!</v>
+      <c r="F26" t="n">
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0.00000833500133840279</v>
@@ -3408,8 +3408,8 @@
       <c r="E27" t="n">
         <v>0.0000039660688063121</v>
       </c>
-      <c r="F27" t="e">
-        <v>#NUM!</v>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0.00000635641826262343</v>
@@ -3521,8 +3521,8 @@
       <c r="E28" t="n">
         <v>0.000000671415954807168</v>
       </c>
-      <c r="F28" t="e">
-        <v>#NUM!</v>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0.00000629967750962917</v>
@@ -3634,8 +3634,8 @@
       <c r="E29" t="n">
         <v>0.000000670977920824586</v>
       </c>
-      <c r="F29" t="e">
-        <v>#NUM!</v>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0.00000629556757925178</v>
@@ -3747,8 +3747,8 @@
       <c r="E30" t="n">
         <v>0.000000676021205955981</v>
       </c>
-      <c r="F30" t="e">
-        <v>#NUM!</v>
+      <c r="F30" t="n">
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0.00000696595281503442</v>
@@ -3860,8 +3860,8 @@
       <c r="E31" t="n">
         <v>0.000000668996028067145</v>
       </c>
-      <c r="F31" t="e">
-        <v>#NUM!</v>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0.00000764236700302574</v>
@@ -3973,8 +3973,8 @@
       <c r="E32" t="n">
         <v>0.000000673401100342349</v>
       </c>
-      <c r="F32" t="e">
-        <v>#NUM!</v>
+      <c r="F32" t="n">
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0.00000769268894454642</v>
@@ -4086,8 +4086,8 @@
       <c r="E33" t="n">
         <v>0.000000673208646845991</v>
       </c>
-      <c r="F33" t="e">
-        <v>#NUM!</v>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0.00000775591864826765</v>
@@ -4199,8 +4199,8 @@
       <c r="E34" t="n">
         <v>0.000000282152140066027</v>
       </c>
-      <c r="F34" t="e">
-        <v>#NUM!</v>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0.0000077735698558306</v>
@@ -4312,8 +4312,8 @@
       <c r="E35" t="n">
         <v>0.000000284806898513713</v>
       </c>
-      <c r="F35" t="e">
-        <v>#NUM!</v>
+      <c r="F35" t="n">
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0.00000784671107049094</v>
@@ -4425,8 +4425,8 @@
       <c r="E36" t="n">
         <v>0.000000283886960504579</v>
       </c>
-      <c r="F36" t="e">
-        <v>#NUM!</v>
+      <c r="F36" t="n">
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0.00000875992977512197</v>
@@ -4538,8 +4538,8 @@
       <c r="E37" t="n">
         <v>0.00000311828773514373</v>
       </c>
-      <c r="F37" t="e">
-        <v>#NUM!</v>
+      <c r="F37" t="n">
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0.00000864424408300245</v>
@@ -4651,8 +4651,8 @@
       <c r="E38" t="n">
         <v>0.00000312319744637627</v>
       </c>
-      <c r="F38" t="e">
-        <v>#NUM!</v>
+      <c r="F38" t="n">
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0.00000803943618619883</v>
@@ -4764,8 +4764,8 @@
       <c r="E39" t="n">
         <v>0.00000311503164667797</v>
       </c>
-      <c r="F39" t="e">
-        <v>#NUM!</v>
+      <c r="F39" t="n">
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0.00001094040333162</v>
@@ -4877,8 +4877,8 @@
       <c r="E40" t="n">
         <v>0.00000647394725137927</v>
       </c>
-      <c r="F40" t="e">
-        <v>#NUM!</v>
+      <c r="F40" t="n">
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0.0000109130217529066</v>
@@ -4990,8 +4990,8 @@
       <c r="E41" t="n">
         <v>0.00000644031392814727</v>
       </c>
-      <c r="F41" t="e">
-        <v>#NUM!</v>
+      <c r="F41" t="n">
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0.0000108563266372683</v>
@@ -5103,8 +5103,8 @@
       <c r="E42" t="n">
         <v>0.00000643969920609091</v>
       </c>
-      <c r="F42" t="e">
-        <v>#NUM!</v>
+      <c r="F42" t="n">
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0.0000143227043828346</v>
@@ -5216,8 +5216,8 @@
       <c r="E43" t="n">
         <v>0.00000743739041659813</v>
       </c>
-      <c r="F43" t="e">
-        <v>#NUM!</v>
+      <c r="F43" t="n">
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0.0000166205518140194</v>
@@ -5329,8 +5329,8 @@
       <c r="E44" t="n">
         <v>0.00000740106337261733</v>
       </c>
-      <c r="F44" t="e">
-        <v>#NUM!</v>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0.0000168285174230616</v>
@@ -5442,8 +5442,8 @@
       <c r="E45" t="n">
         <v>0.0000073444985395707</v>
       </c>
-      <c r="F45" t="e">
-        <v>#NUM!</v>
+      <c r="F45" t="n">
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0.0000155377619216299</v>
@@ -5555,8 +5555,8 @@
       <c r="E46" t="n">
         <v>0.00000973133147222326</v>
       </c>
-      <c r="F46" t="e">
-        <v>#NUM!</v>
+      <c r="F46" t="n">
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0.0000155379046192962</v>
@@ -5668,8 +5668,8 @@
       <c r="E47" t="n">
         <v>0.00000970244992744173</v>
       </c>
-      <c r="F47" t="e">
-        <v>#NUM!</v>
+      <c r="F47" t="n">
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0.000015777877636618</v>
@@ -5781,8 +5781,8 @@
       <c r="E48" t="n">
         <v>0.00000968815396382584</v>
       </c>
-      <c r="F48" t="e">
-        <v>#NUM!</v>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0.000017139978815798</v>
@@ -5894,8 +5894,8 @@
       <c r="E49" t="n">
         <v>0.0000131907490948818</v>
       </c>
-      <c r="F49" t="e">
-        <v>#NUM!</v>
+      <c r="F49" t="n">
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0.000016978668201863</v>
@@ -6007,8 +6007,8 @@
       <c r="E50" t="n">
         <v>0.0000133278911276852</v>
       </c>
-      <c r="F50" t="e">
-        <v>#NUM!</v>
+      <c r="F50" t="n">
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0.0000171551926020126</v>
@@ -6120,8 +6120,8 @@
       <c r="E51" t="n">
         <v>0.0000132577366384306</v>
       </c>
-      <c r="F51" t="e">
-        <v>#NUM!</v>
+      <c r="F51" t="n">
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0.0000170959943903537</v>
@@ -6233,8 +6233,8 @@
       <c r="E52" t="n">
         <v>0.000017465252815272</v>
       </c>
-      <c r="F52" t="e">
-        <v>#NUM!</v>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0.0000169048527801959</v>
@@ -6346,8 +6346,8 @@
       <c r="E53" t="n">
         <v>0.0000172035122759151</v>
       </c>
-      <c r="F53" t="e">
-        <v>#NUM!</v>
+      <c r="F53" t="n">
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0.000016651510596648</v>
@@ -6459,8 +6459,8 @@
       <c r="E54" t="n">
         <v>0.0000172474345222173</v>
       </c>
-      <c r="F54" t="e">
-        <v>#NUM!</v>
+      <c r="F54" t="n">
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0.00000467167043411943</v>
@@ -6572,8 +6572,8 @@
       <c r="E55" t="n">
         <v>0.0000161449188050492</v>
       </c>
-      <c r="F55" t="e">
-        <v>#NUM!</v>
+      <c r="F55" t="n">
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0.00000471059159557526</v>
@@ -6685,8 +6685,8 @@
       <c r="E56" t="n">
         <v>0.0000159468511351155</v>
       </c>
-      <c r="F56" t="e">
-        <v>#NUM!</v>
+      <c r="F56" t="n">
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0.00000438069854320459</v>
@@ -6798,8 +6798,8 @@
       <c r="E57" t="n">
         <v>0.0000158718094593908</v>
       </c>
-      <c r="F57" t="e">
-        <v>#NUM!</v>
+      <c r="F57" t="n">
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0.00000818121552131276</v>
@@ -6911,8 +6911,8 @@
       <c r="E58" t="n">
         <v>0.0000253934371974329</v>
       </c>
-      <c r="F58" t="e">
-        <v>#NUM!</v>
+      <c r="F58" t="n">
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0.00000824974013687447</v>
@@ -7024,8 +7024,8 @@
       <c r="E59" t="n">
         <v>0.0000254723896944374</v>
       </c>
-      <c r="F59" t="e">
-        <v>#NUM!</v>
+      <c r="F59" t="n">
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0.0000085547766459366</v>
@@ -7137,8 +7137,8 @@
       <c r="E60" t="n">
         <v>0.0000254761672046687</v>
       </c>
-      <c r="F60" t="e">
-        <v>#NUM!</v>
+      <c r="F60" t="n">
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0.00000442726979389048</v>
@@ -7250,8 +7250,8 @@
       <c r="E61" t="n">
         <v>0.0000145034231886982</v>
       </c>
-      <c r="F61" t="e">
-        <v>#NUM!</v>
+      <c r="F61" t="n">
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0.00000439312255291493</v>
@@ -7363,8 +7363,8 @@
       <c r="E62" t="n">
         <v>0.0000147553328061417</v>
       </c>
-      <c r="F62" t="e">
-        <v>#NUM!</v>
+      <c r="F62" t="n">
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0.00000463225296879187</v>
@@ -7476,8 +7476,8 @@
       <c r="E63" t="n">
         <v>0.0000144803614849277</v>
       </c>
-      <c r="F63" t="e">
-        <v>#NUM!</v>
+      <c r="F63" t="n">
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0.00000392734050031171</v>
@@ -7589,8 +7589,8 @@
       <c r="E64" t="n">
         <v>0.0000112670427907215</v>
       </c>
-      <c r="F64" t="e">
-        <v>#NUM!</v>
+      <c r="F64" t="n">
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0.00000386136160364461</v>
@@ -7684,6 +7684,119 @@
       </c>
       <c r="AK64" t="n">
         <v>0.0000273446634160369</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.00000557903116981811</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.000045912798512734</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.00087540118877356</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.00000577884284510534</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0000112356501341112</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0000038506029333242</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.000000518185406244657</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0000376224427349759</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.000000282184265118779</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.000083244054027958</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0000412425375561132</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0000642639559525381</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0000156912605590989</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.000123904701849719</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.000000964672142964161</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.0000182307615169893</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.000514905681648989</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.000154976205688869</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.00000789375636598898</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.000000532990703565931</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0000000409598026189442</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.000211222118858404</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.0000957596663659824</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.00157260308073657</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0.0000797302005192069</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0.000138932552975629</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.000192787662946777</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.0000455766242789465</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0.00000117583053310462</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.000211865313747471</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0.00000507394050056123</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0.000001181667060156</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0.0000318156054330826</v>
       </c>
     </row>
   </sheetData>

--- a/SERVICES_CONTRIBUTION.xlsx
+++ b/SERVICES_CONTRIBUTION.xlsx
@@ -7799,6 +7799,119 @@
         <v>0.0000318156054330826</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.00000436990550126467</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0000524343098545006</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.000816524898974575</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.00000573679298802952</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0000111538937176526</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0000106272264079732</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.000000514414820531321</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0000373486823330661</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.00000141163066166787</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0000755569193682129</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0000374126880525507</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0000637963380858885</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.0000155770828107961</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.000123003106990081</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.000000957652688235256</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.0000178407452032421</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.000429130454608274</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.000100125815299169</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.00000783631730147759</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.000000529112386832215</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.0000000348349068810026</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.000200385818146015</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.0000860634019044116</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.00171358650525095</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0.0000791500422372943</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0.000140000964412272</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0.000192605872424614</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.0000221196789592114</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0.00000116727458043594</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0.00024049318597712</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0.00000129474461396118</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>0.00000117306863789005</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0.0000365952550579811</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/SERVICES_CONTRIBUTION.xlsx
+++ b/SERVICES_CONTRIBUTION.xlsx
@@ -7912,6 +7912,119 @@
         <v>0.0000365952550579811</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.00000430516198150763</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0000242404473523366</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.000850384329134998</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.00000715645339718919</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0000124005505310229</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0000083191319076653</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.000000506793368285559</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0000394616954346629</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.00000316081871442122</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0000764253653139573</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0000368583902290868</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0000628511461420136</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.0000153462963170319</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.000120445029725793</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.000000829587308857147</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.0000122660261059779</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.000169341473023423</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.0000255058205752899</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.00000755419259070775</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.000000521273178808003</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.000000034318800873394</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.000197416947727098</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.0000932071336012287</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.00173362265553749</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0.0000779773733267475</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0.00014055211861798</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.000189752267900893</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.00000739034476498405</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0.00000114998050740886</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0.000125054825058275</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0.00000209689964667623</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0.00000115568872143382</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.0000404340849016058</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
